--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladb/Research/VR Testing/artifact/ICSE26-VR-Testing-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A6834F-97C9-6749-9C4C-CD5346F829D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7560F4-74D3-A14B-87FA-6D6F6F437798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23380" yWindow="500" windowWidth="23380" windowHeight="19980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1 Spatial table" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="234">
   <si>
     <t>Name</t>
   </si>
@@ -1378,34 +1378,22 @@
     <t>i4-f</t>
   </si>
   <si>
-    <t>lstm-p</t>
-  </si>
-  <si>
-    <t>lstm-s</t>
-  </si>
-  <si>
-    <t>lstm-f</t>
-  </si>
-  <si>
     <t>j3-p</t>
-  </si>
-  <si>
-    <t>3dcnn-p</t>
-  </si>
-  <si>
-    <t>cnn_lstm-p</t>
   </si>
   <si>
     <t>j3-s</t>
   </si>
   <si>
-    <t>3dcnn-s</t>
-  </si>
-  <si>
     <t>j3-f</t>
   </si>
   <si>
-    <t>3dcnn-f</t>
+    <t>j4-p</t>
+  </si>
+  <si>
+    <t>j4-s</t>
+  </si>
+  <si>
+    <t>j4-f</t>
   </si>
 </sst>
 </file>
@@ -4680,10 +4668,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4912,7 +4900,7 @@
         <v>154</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="D7" s="48">
         <v>0.8095</v>
@@ -4948,7 +4936,7 @@
         <v>154</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="D8" s="48">
         <v>0.92279999999999995</v>
@@ -4984,7 +4972,7 @@
         <v>154</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="D9" s="48">
         <v>0.92649999999999999</v>
@@ -5050,145 +5038,145 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B11" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="D11" s="48">
-        <v>0.81289999999999996</v>
+        <v>0.79139999999999999</v>
       </c>
       <c r="E11" s="48">
-        <v>0.80810000000000004</v>
+        <v>0.77239999999999998</v>
       </c>
       <c r="F11" s="48">
-        <v>0.68700000000000006</v>
+        <v>0.68230000000000002</v>
       </c>
       <c r="G11" s="48">
-        <v>0.74099999999999999</v>
+        <v>0.69969999999999999</v>
       </c>
       <c r="H11" s="48">
-        <v>0.82950000000000002</v>
+        <v>0.76739999999999997</v>
       </c>
       <c r="I11" s="48">
-        <v>0.69020000000000004</v>
+        <v>0.57979999999999998</v>
       </c>
       <c r="J11" s="48">
-        <v>0.79600000000000004</v>
+        <v>0.81189999999999996</v>
       </c>
       <c r="K11" s="48">
-        <v>0.71489999999999998</v>
+        <v>0.65239999999999998</v>
       </c>
       <c r="L11" s="43"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="43" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="48">
-        <v>0.90810000000000002</v>
+        <v>0.81289999999999996</v>
       </c>
       <c r="E12" s="48">
-        <v>0.87939999999999996</v>
+        <v>0.80810000000000004</v>
       </c>
       <c r="F12" s="48">
-        <v>0.85719999999999996</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="G12" s="48">
-        <v>0.86760000000000004</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="H12" s="48">
-        <v>0.70030000000000003</v>
+        <v>0.82950000000000002</v>
       </c>
       <c r="I12" s="48">
-        <v>0.44469999999999998</v>
+        <v>0.69020000000000004</v>
       </c>
       <c r="J12" s="48">
-        <v>0.59209999999999996</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="K12" s="48">
-        <v>0.50749999999999995</v>
+        <v>0.71489999999999998</v>
       </c>
       <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="43" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B13" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="D13" s="48">
-        <v>0.80530000000000002</v>
+        <v>0.79069999999999996</v>
       </c>
       <c r="E13" s="48">
-        <v>0.82130000000000003</v>
+        <v>0.82679999999999998</v>
       </c>
       <c r="F13" s="48">
-        <v>0.62970000000000004</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="G13" s="48">
-        <v>0.63249999999999995</v>
+        <v>0.66490000000000005</v>
       </c>
       <c r="H13" s="48">
-        <v>0.7571</v>
+        <v>0.8377</v>
       </c>
       <c r="I13" s="48">
-        <v>0.68440000000000001</v>
+        <v>0.7923</v>
       </c>
       <c r="J13" s="48">
-        <v>0.56440000000000001</v>
+        <v>0.6139</v>
       </c>
       <c r="K13" s="48">
-        <v>0.47570000000000001</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="43" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="D14" s="48">
-        <v>0.79139999999999999</v>
+        <v>0.90810000000000002</v>
       </c>
       <c r="E14" s="48">
-        <v>0.59889999999999999</v>
+        <v>0.87939999999999996</v>
       </c>
       <c r="F14" s="48">
-        <v>0.68930000000000002</v>
+        <v>0.85719999999999996</v>
       </c>
       <c r="G14" s="48">
-        <v>0.64</v>
+        <v>0.86760000000000004</v>
       </c>
       <c r="H14" s="48">
-        <v>0.72970000000000002</v>
+        <v>0.70030000000000003</v>
       </c>
       <c r="I14" s="48">
-        <v>0.44779999999999998</v>
+        <v>0.44469999999999998</v>
       </c>
       <c r="J14" s="48">
-        <v>0.70889999999999997</v>
+        <v>0.59209999999999996</v>
       </c>
       <c r="K14" s="48">
-        <v>0.52339999999999998</v>
+        <v>0.50749999999999995</v>
       </c>
       <c r="L14" s="43"/>
       <c r="M14" s="43"/>
@@ -5208,37 +5196,37 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="43" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="D15" s="48">
-        <v>0.83899999999999997</v>
+        <v>0.80530000000000002</v>
       </c>
       <c r="E15" s="48">
-        <v>0.83819999999999995</v>
+        <v>0.82130000000000003</v>
       </c>
       <c r="F15" s="48">
-        <v>0.73170000000000002</v>
+        <v>0.62970000000000004</v>
       </c>
       <c r="G15" s="48">
-        <v>0.76600000000000001</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="H15" s="48">
-        <v>0.81859999999999999</v>
+        <v>0.7571</v>
       </c>
       <c r="I15" s="48">
-        <v>0.61480000000000001</v>
+        <v>0.68440000000000001</v>
       </c>
       <c r="J15" s="48">
-        <v>0.56830000000000003</v>
+        <v>0.56440000000000001</v>
       </c>
       <c r="K15" s="48">
-        <v>0.58140000000000003</v>
+        <v>0.47570000000000001</v>
       </c>
       <c r="L15" s="43"/>
       <c r="M15" s="43"/>
@@ -5258,37 +5246,37 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="43" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="48">
-        <v>0.87809999999999999</v>
+        <v>0.79139999999999999</v>
       </c>
       <c r="E16" s="48">
-        <v>0.84040000000000004</v>
+        <v>0.59889999999999999</v>
       </c>
       <c r="F16" s="48">
-        <v>0.80930000000000002</v>
+        <v>0.68930000000000002</v>
       </c>
       <c r="G16" s="48">
-        <v>0.82299999999999995</v>
+        <v>0.64</v>
       </c>
       <c r="H16" s="48">
-        <v>0.79120000000000001</v>
+        <v>0.72970000000000002</v>
       </c>
       <c r="I16" s="48">
-        <v>0.59199999999999997</v>
+        <v>0.44779999999999998</v>
       </c>
       <c r="J16" s="48">
-        <v>0.77429999999999999</v>
+        <v>0.70889999999999997</v>
       </c>
       <c r="K16" s="48">
-        <v>0.66279999999999994</v>
+        <v>0.52339999999999998</v>
       </c>
       <c r="L16" s="43"/>
       <c r="M16" s="43"/>
@@ -5308,37 +5296,37 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="43" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="D17" s="48">
-        <v>0.95220000000000005</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="E17" s="48">
-        <v>0.9415</v>
+        <v>0.83819999999999995</v>
       </c>
       <c r="F17" s="48">
-        <v>0.92159999999999997</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="G17" s="48">
-        <v>0.93120000000000003</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="H17" s="48">
-        <v>0.79220000000000002</v>
+        <v>0.81859999999999999</v>
       </c>
       <c r="I17" s="48">
-        <v>0.57420000000000004</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="J17" s="48">
-        <v>0.89500000000000002</v>
+        <v>0.56830000000000003</v>
       </c>
       <c r="K17" s="48">
-        <v>0.69540000000000002</v>
+        <v>0.58140000000000003</v>
       </c>
       <c r="L17" s="43"/>
       <c r="M17" s="43"/>
@@ -5358,37 +5346,37 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="43" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D18" s="48">
-        <v>0.85550000000000004</v>
+        <v>0.87809999999999999</v>
       </c>
       <c r="E18" s="48">
-        <v>0.81379999999999997</v>
+        <v>0.84040000000000004</v>
       </c>
       <c r="F18" s="48">
-        <v>0.74980000000000002</v>
+        <v>0.80930000000000002</v>
       </c>
       <c r="G18" s="48">
-        <v>0.7732</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="H18" s="48">
-        <v>0.74939999999999996</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="I18" s="48">
-        <v>0.52049999999999996</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="J18" s="48">
-        <v>0.55779999999999996</v>
+        <v>0.77429999999999999</v>
       </c>
       <c r="K18" s="48">
-        <v>0.52400000000000002</v>
+        <v>0.66279999999999994</v>
       </c>
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
@@ -5408,37 +5396,37 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="43" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D19" s="48">
-        <v>0.83420000000000005</v>
+        <v>0.80189999999999995</v>
       </c>
       <c r="E19" s="48">
-        <v>0.7429</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="F19" s="48">
-        <v>0.81950000000000001</v>
+        <v>0.65259999999999996</v>
       </c>
       <c r="G19" s="48">
-        <v>0.77290000000000003</v>
+        <v>0.70960000000000001</v>
       </c>
       <c r="H19" s="48">
-        <v>0.77829999999999999</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="I19" s="48">
-        <v>0.56969999999999998</v>
+        <v>0.66859999999999997</v>
       </c>
       <c r="J19" s="48">
-        <v>0.85540000000000005</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="K19" s="48">
-        <v>0.6724</v>
+        <v>0.69650000000000001</v>
       </c>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
@@ -5458,37 +5446,37 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="43" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D20" s="48">
-        <v>0.83640000000000003</v>
+        <v>0.80269999999999997</v>
       </c>
       <c r="E20" s="48">
-        <v>0.77980000000000005</v>
+        <v>0.75119999999999998</v>
       </c>
       <c r="F20" s="48">
-        <v>0.73460000000000003</v>
+        <v>0.74219999999999997</v>
       </c>
       <c r="G20" s="48">
-        <v>0.74409999999999998</v>
+        <v>0.74480000000000002</v>
       </c>
       <c r="H20" s="48">
-        <v>0.81189999999999996</v>
+        <v>0.80520000000000003</v>
       </c>
       <c r="I20" s="48">
-        <v>0.67549999999999999</v>
+        <v>0.63970000000000005</v>
       </c>
       <c r="J20" s="48">
-        <v>0.73860000000000003</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="K20" s="48">
-        <v>0.66990000000000005</v>
+        <v>0.69089999999999996</v>
       </c>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
@@ -5508,37 +5496,37 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="43" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="49">
-        <v>0.94169999999999998</v>
+        <v>176</v>
+      </c>
+      <c r="D21" s="48">
+        <v>0.7994</v>
       </c>
       <c r="E21" s="48">
-        <v>0.89980000000000004</v>
-      </c>
-      <c r="F21" s="49">
-        <v>0.93899999999999995</v>
+        <v>0.78149999999999997</v>
+      </c>
+      <c r="F21" s="48">
+        <v>0.67569999999999997</v>
       </c>
       <c r="G21" s="48">
-        <v>0.91890000000000005</v>
-      </c>
-      <c r="H21" s="49">
-        <v>0.94159999999999999</v>
-      </c>
-      <c r="I21" s="49">
-        <v>0.93730000000000002</v>
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="H21" s="48">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="I21" s="48">
+        <v>0.66779999999999995</v>
       </c>
       <c r="J21" s="48">
-        <v>0.8337</v>
-      </c>
-      <c r="K21" s="49">
-        <v>0.8821</v>
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="K21" s="48">
+        <v>0.68259999999999998</v>
       </c>
       <c r="L21" s="43"/>
       <c r="M21" s="43"/>
@@ -5558,37 +5546,37 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="43" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>146</v>
       </c>
       <c r="D22" s="48">
-        <v>0.85099999999999998</v>
+        <v>0.95220000000000005</v>
       </c>
       <c r="E22" s="48">
-        <v>0.80920000000000003</v>
+        <v>0.9415</v>
       </c>
       <c r="F22" s="48">
-        <v>0.73850000000000005</v>
+        <v>0.92159999999999997</v>
       </c>
       <c r="G22" s="48">
-        <v>0.76519999999999999</v>
+        <v>0.93120000000000003</v>
       </c>
       <c r="H22" s="48">
-        <v>0.7984</v>
+        <v>0.79220000000000002</v>
       </c>
       <c r="I22" s="48">
-        <v>0.57430000000000003</v>
+        <v>0.57420000000000004</v>
       </c>
       <c r="J22" s="48">
-        <v>0.63370000000000004</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="K22" s="48">
-        <v>0.56269999999999998</v>
+        <v>0.69540000000000002</v>
       </c>
       <c r="L22" s="43"/>
       <c r="M22" s="43"/>
@@ -5608,37 +5596,37 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="43" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="48">
-        <v>0.84670000000000001</v>
+        <v>0.85550000000000004</v>
       </c>
       <c r="E23" s="48">
-        <v>0.77229999999999999</v>
+        <v>0.81379999999999997</v>
       </c>
       <c r="F23" s="48">
-        <v>0.79579999999999995</v>
+        <v>0.74980000000000002</v>
       </c>
       <c r="G23" s="48">
-        <v>0.78290000000000004</v>
+        <v>0.7732</v>
       </c>
       <c r="H23" s="48">
-        <v>0.82640000000000002</v>
+        <v>0.74939999999999996</v>
       </c>
       <c r="I23" s="48">
-        <v>0.65349999999999997</v>
+        <v>0.52049999999999996</v>
       </c>
       <c r="J23" s="48">
-        <v>0.82769999999999999</v>
+        <v>0.55779999999999996</v>
       </c>
       <c r="K23" s="48">
-        <v>0.72419999999999995</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="L23" s="43"/>
       <c r="M23" s="43"/>
@@ -5658,37 +5646,37 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="43" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>146</v>
       </c>
       <c r="D24" s="48">
-        <v>0.87250000000000005</v>
+        <v>0.83420000000000005</v>
       </c>
       <c r="E24" s="48">
-        <v>0.80259999999999998</v>
+        <v>0.7429</v>
       </c>
       <c r="F24" s="48">
-        <v>0.80889999999999995</v>
+        <v>0.81950000000000001</v>
       </c>
       <c r="G24" s="48">
-        <v>0.80510000000000004</v>
+        <v>0.77290000000000003</v>
       </c>
       <c r="H24" s="48">
-        <v>0.86099999999999999</v>
+        <v>0.77829999999999999</v>
       </c>
       <c r="I24" s="48">
-        <v>0.74299999999999999</v>
+        <v>0.56969999999999998</v>
       </c>
       <c r="J24" s="48">
-        <v>0.84550000000000003</v>
+        <v>0.85540000000000005</v>
       </c>
       <c r="K24" s="48">
-        <v>0.77700000000000002</v>
+        <v>0.6724</v>
       </c>
       <c r="L24" s="43"/>
       <c r="M24" s="43"/>
@@ -5708,37 +5696,37 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="43" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D25" s="48">
-        <v>0.90100000000000002</v>
+        <v>0.83640000000000003</v>
       </c>
       <c r="E25" s="48">
-        <v>0.84160000000000001</v>
+        <v>0.77980000000000005</v>
       </c>
       <c r="F25" s="48">
-        <v>0.88629999999999998</v>
+        <v>0.73460000000000003</v>
       </c>
       <c r="G25" s="48">
-        <v>0.8629</v>
+        <v>0.74409999999999998</v>
       </c>
       <c r="H25" s="48">
-        <v>0.92869999999999997</v>
+        <v>0.81189999999999996</v>
       </c>
       <c r="I25" s="48">
-        <v>0.86499999999999999</v>
+        <v>0.67549999999999999</v>
       </c>
       <c r="J25" s="48">
-        <v>0.86339999999999995</v>
+        <v>0.73860000000000003</v>
       </c>
       <c r="K25" s="48">
-        <v>0.86370000000000002</v>
+        <v>0.66990000000000005</v>
       </c>
       <c r="L25" s="43"/>
       <c r="M25" s="43"/>
@@ -5758,37 +5746,37 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="43" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="B26" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="48">
-        <v>0.89200000000000002</v>
+        <v>146</v>
+      </c>
+      <c r="D26" s="49">
+        <v>0.94169999999999998</v>
       </c>
       <c r="E26" s="48">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="F26" s="48">
-        <v>0.85729999999999995</v>
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="F26" s="49">
+        <v>0.93899999999999995</v>
       </c>
       <c r="G26" s="48">
-        <v>0.85260000000000002</v>
-      </c>
-      <c r="H26" s="48">
-        <v>0.70889999999999997</v>
-      </c>
-      <c r="I26" s="48">
-        <v>0.47170000000000001</v>
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="H26" s="49">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="I26" s="49">
+        <v>0.93730000000000002</v>
       </c>
       <c r="J26" s="48">
-        <v>0.62709999999999999</v>
-      </c>
-      <c r="K26" s="48">
-        <v>0.45760000000000001</v>
+        <v>0.8337</v>
+      </c>
+      <c r="K26" s="49">
+        <v>0.8821</v>
       </c>
       <c r="L26" s="43"/>
       <c r="M26" s="43"/>
@@ -5808,37 +5796,37 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="43" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B27" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="D27" s="48">
-        <v>0.90080000000000005</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="E27" s="48">
-        <v>0.87680000000000002</v>
+        <v>0.80920000000000003</v>
       </c>
       <c r="F27" s="48">
-        <v>0.86670000000000003</v>
+        <v>0.73850000000000005</v>
       </c>
       <c r="G27" s="48">
-        <v>0.87129999999999996</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="H27" s="48">
-        <v>0.75090000000000001</v>
+        <v>0.7984</v>
       </c>
       <c r="I27" s="48">
-        <v>0.56120000000000003</v>
+        <v>0.57430000000000003</v>
       </c>
       <c r="J27" s="48">
-        <v>0.77429999999999999</v>
+        <v>0.63370000000000004</v>
       </c>
       <c r="K27" s="48">
-        <v>0.63729999999999998</v>
+        <v>0.56269999999999998</v>
       </c>
       <c r="L27" s="43"/>
       <c r="M27" s="43"/>
@@ -5858,37 +5846,37 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="43" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="B28" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="D28" s="48">
-        <v>0.89710000000000001</v>
+        <v>0.84670000000000001</v>
       </c>
       <c r="E28" s="48">
-        <v>0.8659</v>
+        <v>0.77229999999999999</v>
       </c>
       <c r="F28" s="48">
-        <v>0.87170000000000003</v>
+        <v>0.79579999999999995</v>
       </c>
       <c r="G28" s="48">
-        <v>0.86850000000000005</v>
+        <v>0.78290000000000004</v>
       </c>
       <c r="H28" s="48">
-        <v>0.80259999999999998</v>
+        <v>0.82640000000000002</v>
       </c>
       <c r="I28" s="48">
-        <v>0.61480000000000001</v>
+        <v>0.65349999999999997</v>
       </c>
       <c r="J28" s="48">
-        <v>0.83560000000000001</v>
+        <v>0.82769999999999999</v>
       </c>
       <c r="K28" s="48">
-        <v>0.69779999999999998</v>
+        <v>0.72419999999999995</v>
       </c>
       <c r="L28" s="43"/>
       <c r="M28" s="43"/>
@@ -5908,37 +5896,37 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="43" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="B29" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D29" s="48">
-        <v>0.89980000000000004</v>
+        <v>0.87250000000000005</v>
       </c>
       <c r="E29" s="48">
-        <v>0.85819999999999996</v>
+        <v>0.80259999999999998</v>
       </c>
       <c r="F29" s="48">
-        <v>0.85709999999999997</v>
+        <v>0.80889999999999995</v>
       </c>
       <c r="G29" s="48">
-        <v>0.85740000000000005</v>
+        <v>0.80510000000000004</v>
       </c>
       <c r="H29" s="48">
-        <v>0.93799999999999994</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="I29" s="48">
-        <v>0.89529999999999998</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="J29" s="48">
-        <v>0.86529999999999996</v>
+        <v>0.84550000000000003</v>
       </c>
       <c r="K29" s="48">
-        <v>0.87960000000000005</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
@@ -5958,261 +5946,511 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="43" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="B30" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="D30" s="48">
-        <v>0.89849999999999997</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="E30" s="48">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="F30" s="48">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="G30" s="48">
+        <v>0.8629</v>
+      </c>
+      <c r="H30" s="48">
+        <v>0.92869999999999997</v>
+      </c>
+      <c r="I30" s="48">
         <v>0.86499999999999999</v>
       </c>
-      <c r="F30" s="48">
-        <v>0.85340000000000005</v>
-      </c>
-      <c r="G30" s="48">
-        <v>0.8589</v>
-      </c>
-      <c r="H30" s="48">
-        <v>0.76060000000000005</v>
-      </c>
-      <c r="I30" s="48">
-        <v>0.57550000000000001</v>
-      </c>
       <c r="J30" s="48">
-        <v>0.87129999999999996</v>
+        <v>0.86339999999999995</v>
       </c>
       <c r="K30" s="48">
-        <v>0.67630000000000001</v>
+        <v>0.86370000000000002</v>
       </c>
       <c r="L30" s="43"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B31" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="D31" s="48">
-        <v>0.89600000000000002</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="E31" s="48">
-        <v>0.86539999999999995</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="F31" s="48">
-        <v>0.86970000000000003</v>
+        <v>0.85729999999999995</v>
       </c>
       <c r="G31" s="48">
-        <v>0.86699999999999999</v>
+        <v>0.85260000000000002</v>
       </c>
       <c r="H31" s="48">
-        <v>0.77829999999999999</v>
+        <v>0.70889999999999997</v>
       </c>
       <c r="I31" s="48">
-        <v>0.5988</v>
+        <v>0.47170000000000001</v>
       </c>
       <c r="J31" s="48">
-        <v>0.81979999999999997</v>
+        <v>0.62709999999999999</v>
       </c>
       <c r="K31" s="48">
-        <v>0.67510000000000003</v>
+        <v>0.45760000000000001</v>
       </c>
       <c r="L31" s="43"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="43" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B32" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="D32" s="48">
-        <v>0.89670000000000005</v>
+        <v>0.90080000000000005</v>
       </c>
       <c r="E32" s="48">
-        <v>0.87</v>
+        <v>0.87680000000000002</v>
       </c>
       <c r="F32" s="48">
-        <v>0.86960000000000004</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="G32" s="48">
-        <v>0.86880000000000002</v>
+        <v>0.87129999999999996</v>
       </c>
       <c r="H32" s="48">
-        <v>0.79690000000000005</v>
+        <v>0.75090000000000001</v>
       </c>
       <c r="I32" s="48">
-        <v>0.58750000000000002</v>
+        <v>0.56120000000000003</v>
       </c>
       <c r="J32" s="48">
-        <v>0.81979999999999997</v>
+        <v>0.77429999999999999</v>
       </c>
       <c r="K32" s="48">
-        <v>0.68200000000000005</v>
+        <v>0.63729999999999998</v>
       </c>
       <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="43" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="B33" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D33" s="48">
-        <v>0.90659999999999996</v>
+        <v>0.89710000000000001</v>
       </c>
       <c r="E33" s="48">
-        <v>0.85489999999999999</v>
+        <v>0.8659</v>
       </c>
       <c r="F33" s="48">
-        <v>0.88560000000000005</v>
+        <v>0.87170000000000003</v>
       </c>
       <c r="G33" s="48">
-        <v>0.86950000000000005</v>
+        <v>0.86850000000000005</v>
       </c>
       <c r="H33" s="48">
-        <v>0.9395</v>
+        <v>0.80259999999999998</v>
       </c>
       <c r="I33" s="48">
-        <v>0.92049999999999998</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="J33" s="48">
-        <v>0.84160000000000001</v>
+        <v>0.83560000000000001</v>
       </c>
       <c r="K33" s="48">
-        <v>0.87919999999999998</v>
+        <v>0.69779999999999998</v>
       </c>
       <c r="L33" s="43"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="43" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="D34" s="48">
-        <v>0.90149999999999997</v>
+        <v>0.89980000000000004</v>
       </c>
       <c r="E34" s="48">
-        <v>0.86839999999999995</v>
+        <v>0.85819999999999996</v>
       </c>
       <c r="F34" s="48">
-        <v>0.85540000000000005</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="G34" s="48">
-        <v>0.86070000000000002</v>
+        <v>0.85740000000000005</v>
       </c>
       <c r="H34" s="48">
-        <v>0.78549999999999998</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="I34" s="48">
-        <v>0.64239999999999997</v>
+        <v>0.89529999999999998</v>
       </c>
       <c r="J34" s="48">
-        <v>0.8548</v>
+        <v>0.86529999999999996</v>
       </c>
       <c r="K34" s="48">
-        <v>0.69989999999999997</v>
+        <v>0.87960000000000005</v>
       </c>
       <c r="L34" s="43"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="43" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B35" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="D35" s="48">
-        <v>0.9103</v>
+        <v>0.89849999999999997</v>
       </c>
       <c r="E35" s="48">
-        <v>0.89</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="F35" s="48">
-        <v>0.879</v>
+        <v>0.85340000000000005</v>
       </c>
       <c r="G35" s="48">
-        <v>0.8841</v>
+        <v>0.8589</v>
       </c>
       <c r="H35" s="48">
-        <v>0.79169999999999996</v>
+        <v>0.76060000000000005</v>
       </c>
       <c r="I35" s="48">
-        <v>0.60819999999999996</v>
+        <v>0.57550000000000001</v>
       </c>
       <c r="J35" s="48">
-        <v>0.85350000000000004</v>
+        <v>0.87129999999999996</v>
       </c>
       <c r="K35" s="48">
-        <v>0.69540000000000002</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="L35" s="43"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="43" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="D36" s="48">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E36" s="48">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="F36" s="48">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="G36" s="48">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="H36" s="48">
+        <v>0.77829999999999999</v>
+      </c>
+      <c r="I36" s="48">
+        <v>0.5988</v>
+      </c>
+      <c r="J36" s="48">
+        <v>0.81979999999999997</v>
+      </c>
+      <c r="K36" s="48">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="L36" s="43"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A37" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="48">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="E37" s="48">
+        <v>0.87</v>
+      </c>
+      <c r="F37" s="48">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="G37" s="48">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="H37" s="48">
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="I37" s="48">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="J37" s="48">
+        <v>0.81979999999999997</v>
+      </c>
+      <c r="K37" s="48">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A38" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="48">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="E38" s="48">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="F38" s="48">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="G38" s="48">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="H38" s="48">
+        <v>0.9395</v>
+      </c>
+      <c r="I38" s="48">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="J38" s="48">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="K38" s="48">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A39" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="48">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="E39" s="48">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="F39" s="48">
+        <v>0.85540000000000005</v>
+      </c>
+      <c r="G39" s="48">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="H39" s="48">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="I39" s="48">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="J39" s="48">
+        <v>0.8548</v>
+      </c>
+      <c r="K39" s="48">
+        <v>0.69989999999999997</v>
+      </c>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A40" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="48">
+        <v>0.9103</v>
+      </c>
+      <c r="E40" s="48">
+        <v>0.89</v>
+      </c>
+      <c r="F40" s="48">
+        <v>0.879</v>
+      </c>
+      <c r="G40" s="48">
+        <v>0.8841</v>
+      </c>
+      <c r="H40" s="48">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="I40" s="48">
+        <v>0.60819999999999996</v>
+      </c>
+      <c r="J40" s="48">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="K40" s="48">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="48">
         <v>0.90890000000000004</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E41" s="48">
         <v>0.88739999999999997</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F41" s="48">
         <v>0.88029999999999997</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G41" s="48">
         <v>0.88290000000000002</v>
       </c>
-      <c r="H36" s="48">
+      <c r="H41" s="48">
         <v>0.8357</v>
       </c>
-      <c r="I36" s="48">
+      <c r="I41" s="48">
         <v>0.65910000000000002</v>
       </c>
-      <c r="J36" s="48">
+      <c r="J41" s="48">
         <v>0.84360000000000002</v>
       </c>
-      <c r="K36" s="48">
+      <c r="K41" s="48">
         <v>0.73460000000000003</v>
       </c>
-      <c r="L36" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K36">
-    <sortCondition ref="B2:B36"/>
-    <sortCondition ref="A2:A36"/>
-    <sortCondition descending="1" ref="D2:D36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K41">
+    <sortCondition ref="B2:B41"/>
+    <sortCondition ref="A2:A41"/>
+    <sortCondition descending="1" ref="D2:D41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
